--- a/test.xlsx
+++ b/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:FT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -359,305 +359,854 @@
           <t>kernel_name</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>gpu_sim_cycle</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>L1D_total_cache_accesses</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>L1D_total_cache_misses</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>L1D_total_cache_pending_hits</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>L1D_total_cache_reservation_fails</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>L1D_cache_data_port_util</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>L1D_cache_fill_port_util</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>L2_total_cache_accesses</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>L2_total_cache_misses</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>L2_total_cache_pending_hits</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L2_total_cache_reservation_fails</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>n_act</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>n_act</t>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>n_act</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>n_rd</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>n_write</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DV1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DW1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DX1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DY1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="DZ1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EA1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EE1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EF1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EG1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EH1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EI1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EJ1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EK1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EL1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EM1" t="inlineStr">
+        <is>
+          <t>n_wr_bk</t>
+        </is>
+      </c>
+      <c r="EO1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EP1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EQ1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="ER1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="ES1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="ET1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EU1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EV1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EW1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EX1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EY1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="EZ1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FA1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FB1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FC1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FD1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FE1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FF1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FG1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FH1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FI1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FJ1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FK1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FL1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FM1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FN1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FO1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FP1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FQ1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FR1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FS1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
+        </is>
+      </c>
+      <c r="FT1" t="inlineStr">
+        <is>
+          <t>bw_util</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FT1"/>
+  <dimension ref="A1:FT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,6 +1210,14 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native13reduce_kernelILi512ENS0_8ReduceOpIlNS0_14func_wrapper_tIlZNS0_15sum_kernel_implIlllEEvRNS_14TensorIteratorEEUnvhdl0_PFvS6_ES4_IlllE1_lllEEEjlLi4EEEEEvT0_ 
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FT2"/>
+  <dimension ref="A1:QJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1213,2712 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
+</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
+</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
+</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
+</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
+</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
+</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
+</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
+</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
+</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
+</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
+</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
+</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
+</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
+</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z14AvePoolForwardIffLb1EEviPKT_iiiiiiiiiiiiPS0_ 
+</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at4cuda63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a321kernelPointwiseApply2IZN63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a36CopyOpIffE5applyERNS_6TensorERKS6_EUnvdl0_PFvS7_S9_ENS5_5applyE1_ffjLi1ELi2ELi1EEEvNS0_6detail10TensorInfoIT0_T2_EENSE_IT1_SG_EESG_T_ 
+</t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z19gemm_kernel1x1_coreIfLb0ELb0ELb0ELb1ELb0EEvPT_PKS0_S3_iiiiiiS1_S1_S0_S0_i 
+</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native66_GLOBAL__N__42_tmpxft_000015a4_00000000_7_SoftMax_cpp1_ii_a331004219cunn_SoftMaxForwardILi2EfffNS1_25LogSoftMaxForwardEpilogueEEEvPT2_PT0_i 
+</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z42cunn_ClassNLLCriterion_updateOutput_kernelIffEvPT_S1_S1_PlS1_iiiil 
+</t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z21kernelPointwiseApply1I12TensorFillOpIfEfjLi1EEv10OffsetInfoIT0_T1_XT2_EES4_T_ 
+</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z45cunn_ClassNLLCriterion_updateGradInput_kernelIfEvPT_S1_PlS1_S1_iiiil 
+</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native66_GLOBAL__N__42_tmpxft_000015a4_00000000_7_SoftMax_cpp1_ii_a331004220cunn_SoftMaxBackwardILi2EfffNS1_26LogSoftMaxBackwardEpilogueEEEvPT0_PT2_S7_i 
+</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z19gemm_kernel1x1_coreIfLb0ELb0ELb0ELb0ELb0EEvPT_PKS0_S3_iiiiiiS1_S1_S0_S0_i 
+</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z19gemm_kernel1x1_coreIfLb0ELb0ELb0ELb0ELb1EEvPT_PKS0_S3_iiiiiiS1_S1_S0_S0_i 
+</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native13reduce_kernelILi512ENS0_8ReduceOpIfNS0_14func_wrapper_tIfZNS0_15sum_kernel_implIfffEEvRNS_14TensorIteratorEEUnvhdl0_PFvS6_ES4_IfffE1_fffEEEjfLi4EEEEEvT0_ 
+</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z15AvePoolBackwardIffLb1EEviPKT_iiiiiiiiiiiiPS0_ 
+</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
+</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
+</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
+</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
+</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
+</t>
+        </is>
+      </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
+</t>
+        </is>
+      </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
+</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
+</t>
+        </is>
+      </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="FJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="FN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="FO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="FP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi512ELi6ELi5ELi3ELi3ELi3ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
+</t>
+        </is>
+      </c>
+      <c r="FQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="FS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_interior_nn 
+</t>
+        </is>
+      </c>
+      <c r="FU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="FV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
+</t>
+        </is>
+      </c>
+      <c r="FW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
+</t>
+        </is>
+      </c>
+      <c r="FX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="FY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="FZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="GB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="GC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
+</t>
+        </is>
+      </c>
+      <c r="GD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="GE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi512ELi6ELi5ELi3ELi3ELi3ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
+</t>
+        </is>
+      </c>
+      <c r="GF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="GH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="GJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="GK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="GL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="GM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="GR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="GU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="GV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="GY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="HA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="HC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="HD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="HF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="HI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="HK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="HM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="HN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="HO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="HR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="HT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="HU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="HV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="HW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="HX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="HY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="HZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi128ELi6ELi8ELi3ELi3ELi5ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
+</t>
+        </is>
+      </c>
+      <c r="IA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="IC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="ID2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_interior_nn 
+</t>
+        </is>
+      </c>
+      <c r="IE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="IF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="II2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="IK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="IM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="IN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="IO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="IP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi128ELi6ELi8ELi3ELi3ELi5ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
+</t>
+        </is>
+      </c>
+      <c r="IQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="IS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="IU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="IV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="IW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="IX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="IZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="JA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="JC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="JE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="JF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="JG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="JJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="JL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="JN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="JO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="JP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="JQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="JT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="JV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="JW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="JX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="JY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="JZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="KC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="KE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="KG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="KH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="KI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="KJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="KM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="KO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="KQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="KR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="KS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="KV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="KX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="KY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="KZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
+</t>
+        </is>
+      </c>
+      <c r="LC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="LD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
+</t>
+        </is>
+      </c>
+      <c r="LE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
+</t>
+        </is>
+      </c>
+      <c r="LF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
+</t>
+        </is>
+      </c>
+      <c r="LG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="LZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="ME2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="ML2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="MZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="ND2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="NZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="ON2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="OZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="PZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+      <c r="QG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z38kernelTransformReduceInnermostDimIndexIfl12MaxValuePairIflEEvPT_PT0_S3_jjN6thrust4pairIS2_S4_EET1_ 
+</t>
+        </is>
+      </c>
+      <c r="QH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_Z21kernelPointwiseApply3I10TensorEQOpIlhEhlljLi1ELi1ELi1EEv10OffsetInfoIT0_T3_XT4_EES2_IT1_S4_XT5_EES2_IT2_S4_XT6_EES4_T_ 
+</t>
+        </is>
+      </c>
+      <c r="QI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at4cuda63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a321kernelPointwiseApply2IZN63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a36CopyOpIlhE5applyERNS_6TensorERKS6_EUnvdl0_PFvS7_S9_ENS5_5applyE1_lhjLi1ELi1ELi1EEEvNS0_6detail10TensorInfoIT0_T2_EENSE_IT1_SG_EESG_T_ 
+</t>
+        </is>
+      </c>
+      <c r="QJ2" t="inlineStr">
+        <is>
           <t xml:space="preserve">_ZN2at6native13reduce_kernelILi512ENS0_8ReduceOpIlNS0_14func_wrapper_tIlZNS0_15sum_kernel_implIlllEEvRNS_14TensorIteratorEEUnvhdl0_PFvS6_ES4_IlllE1_lllEEEjlLi4EEEEEvT0_ 
 </t>
         </is>

--- a/test.xlsx
+++ b/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QJ2"/>
+  <dimension ref="A1:FT453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,2707 +1217,3609 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi1024ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
 </t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
 </t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
 </t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
 </t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
 </t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
 </t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BP2" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
 </t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
 </t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z11flip_filterIffEvPT0_PKT_iiii 
 </t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_r2c_32x32IfLj1ELb0EEvP6float2PKT_iiiiiiiiiN5cudnn15reduced_divisorEb 
 </t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15fft2d_c2r_32x32IfLb0ELj1ELb0ELb0EEvPT_PK6float2iiiiiiiiiffN5cudnn15reduced_divisorEbS1_S1_ 
 </t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CE2" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_kernel_newIffLi512ELb1ELi1EEEv17cudnnTensorStructPKT_S2_PS3_PKT0_S9_S7_S7_PS7_SA_SA_SA_S7_S7_ 
 </t>
         </is>
       </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="CG2" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="CI2" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="CJ2" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="CL2" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CM2" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="CN2" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="CO2" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CP2" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="CQ2" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="CR2" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="CS2" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="CU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="CV2" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CW2" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="CX2" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="CY2" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="DA2" t="inlineStr">
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DB2" t="inlineStr">
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="DC2" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="DD2" t="inlineStr">
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DE2" t="inlineStr">
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DH2" t="inlineStr">
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="DJ2" t="inlineStr">
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DK2" t="inlineStr">
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="DL2" t="inlineStr">
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DM2" t="inlineStr">
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15im2col4d_kernelIfiEv15im2col4d_params22cudnnConvolutionStruct19cudnnTensor4dStructPKT_PS3_i 
 </t>
         </is>
       </c>
-      <c r="DN2" t="inlineStr">
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail23explicit_convolve_sgemmIfiLi128ELi5ELi5ELi3ELi3ELi3ELi0ELb1EEEviiiPKT_iS4_iPS2_18kernel_conv_paramsiiffiS5_S5_ 
 </t>
         </is>
       </c>
-      <c r="DO2" t="inlineStr">
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi128ELi4EZNS0_16gpu_unary_kernelIZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIlEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS6_S8_ES4_IlE1_lllElEEvS6_RKT_EUnvhdl2_PFvS6_RKSB_ES3_ISB_E2_llESF_lEEvS6_RKT_EUnvdl4_PFvS6_RKSJ_ES2_ISJ_E3_16OffsetCalculatorILi2EjEPcPKcSN_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DP2" t="inlineStr">
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail24bn_fw_tr_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEv17cudnnTensorStructPKT_S2_PS3_PKfS8_ffPfS9_S9_S9_ffNS_15reduced_divisorEiSA_PNS0_19bnFwPersistentStateEifffiffP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="DQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="DR2" t="inlineStr">
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="DS2" t="inlineStr">
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z14AvePoolForwardIffLb1EEviPKT_iiiiiiiiiiiiPS0_ 
 </t>
         </is>
       </c>
-      <c r="DT2" t="inlineStr">
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at4cuda63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a321kernelPointwiseApply2IZN63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a36CopyOpIffE5applyERNS_6TensorERKS6_EUnvdl0_PFvS7_S9_ENS5_5applyE1_ffjLi1ELi2ELi1EEEvNS0_6detail10TensorInfoIT0_T2_EENSE_IT1_SG_EESG_T_ 
 </t>
         </is>
       </c>
-      <c r="DU2" t="inlineStr">
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z19gemm_kernel1x1_coreIfLb0ELb0ELb0ELb1ELb0EEvPT_PKS0_S3_iiiiiiS1_S1_S0_S0_i 
 </t>
         </is>
       </c>
-      <c r="DV2" t="inlineStr">
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native66_GLOBAL__N__42_tmpxft_000015a4_00000000_7_SoftMax_cpp1_ii_a331004219cunn_SoftMaxForwardILi2EfffNS1_25LogSoftMaxForwardEpilogueEEEvPT2_PT0_i 
 </t>
         </is>
       </c>
-      <c r="DW2" t="inlineStr">
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z42cunn_ClassNLLCriterion_updateOutput_kernelIffEvPT_S1_S1_PlS1_iiiil 
 </t>
         </is>
       </c>
-      <c r="DX2" t="inlineStr">
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z21kernelPointwiseApply1I12TensorFillOpIfEfjLi1EEv10OffsetInfoIT0_T1_XT2_EES4_T_ 
 </t>
         </is>
       </c>
-      <c r="DY2" t="inlineStr">
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z45cunn_ClassNLLCriterion_updateGradInput_kernelIfEvPT_S1_PlS1_S1_iiiil 
 </t>
         </is>
       </c>
-      <c r="DZ2" t="inlineStr">
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native66_GLOBAL__N__42_tmpxft_000015a4_00000000_7_SoftMax_cpp1_ii_a331004220cunn_SoftMaxBackwardILi2EfffNS1_26LogSoftMaxBackwardEpilogueEEEvPT0_PT2_S7_i 
 </t>
         </is>
       </c>
-      <c r="EA2" t="inlineStr">
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z19gemm_kernel1x1_coreIfLb0ELb0ELb0ELb0ELb0EEvPT_PKS0_S3_iiiiiiS1_S1_S0_S0_i 
 </t>
         </is>
       </c>
-      <c r="EB2" t="inlineStr">
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z19gemm_kernel1x1_coreIfLb0ELb0ELb0ELb0ELb1EEvPT_PKS0_S3_iiiiiiS1_S1_S0_S0_i 
 </t>
         </is>
       </c>
-      <c r="EC2" t="inlineStr">
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native13reduce_kernelILi512ENS0_8ReduceOpIfNS0_14func_wrapper_tIfZNS0_15sum_kernel_implIfffEEvRNS_14TensorIteratorEEUnvhdl0_PFvS6_ES4_IfffE1_fffEEEjfLi4EEEEEvT0_ 
 </t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr">
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z15AvePoolBackwardIffLb1EEviPKT_iiiiiiiiiiiiPS0_ 
 </t>
         </is>
       </c>
-      <c r="EE2" t="inlineStr">
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="EF2" t="inlineStr">
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="EG2" t="inlineStr">
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
 </t>
         </is>
       </c>
-      <c r="EH2" t="inlineStr">
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
 </t>
         </is>
       </c>
-      <c r="EI2" t="inlineStr">
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="EJ2" t="inlineStr">
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="EK2" t="inlineStr">
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="EL2" t="inlineStr">
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="EM2" t="inlineStr">
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="EN2" t="inlineStr">
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="EO2" t="inlineStr">
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
 </t>
         </is>
       </c>
-      <c r="EP2" t="inlineStr">
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
 </t>
         </is>
       </c>
-      <c r="EQ2" t="inlineStr">
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="ER2" t="inlineStr">
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="ES2" t="inlineStr">
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="ET2" t="inlineStr">
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="EU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="EV2" t="inlineStr">
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="EW2" t="inlineStr">
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="EX2" t="inlineStr">
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
 </t>
         </is>
       </c>
-      <c r="EY2" t="inlineStr">
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
 </t>
         </is>
       </c>
-      <c r="EZ2" t="inlineStr">
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FA2" t="inlineStr">
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="FB2" t="inlineStr">
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FC2" t="inlineStr">
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="FD2" t="inlineStr">
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="FE2" t="inlineStr">
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="FF2" t="inlineStr">
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
 </t>
         </is>
       </c>
-      <c r="FG2" t="inlineStr">
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
 </t>
         </is>
       </c>
-      <c r="FH2" t="inlineStr">
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FI2" t="inlineStr">
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="FJ2" t="inlineStr">
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FK2" t="inlineStr">
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="FL2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="FM2" t="inlineStr">
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="FN2" t="inlineStr">
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="FO2" t="inlineStr">
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="FP2" t="inlineStr">
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi512ELi6ELi5ELi3ELi3ELi3ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
 </t>
         </is>
       </c>
-      <c r="FQ2" t="inlineStr">
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FR2" t="inlineStr">
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="FS2" t="inlineStr">
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FT2" t="inlineStr">
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_interior_nn 
 </t>
         </is>
       </c>
-      <c r="FU2" t="inlineStr">
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="FV2" t="inlineStr">
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn8winograd27generateWinogradTilesKernelILi0EffEEvNS0_27GenerateWinogradTilesParamsIT0_T1_EE 
 </t>
         </is>
       </c>
-      <c r="FW2" t="inlineStr">
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_winograd_128x128_ldg1_ldg4_tile148n_nt 
 </t>
         </is>
       </c>
-      <c r="FX2" t="inlineStr">
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="FY2" t="inlineStr">
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="FZ2" t="inlineStr">
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GA2" t="inlineStr">
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="GB2" t="inlineStr">
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="GC2" t="inlineStr">
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_singlereadIfLi512ELb1ELi1ELi2ELi0EEEvffff17cudnnTensorStructPKT_S2_S5_S2_PS3_PKfPfS9_S8_S8_fNS_15reduced_divisorEiSA_PNS0_19bnBwPersistentStateEifffifP13cudnnStatus_tb 
 </t>
         </is>
       </c>
-      <c r="GD2" t="inlineStr">
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="GE2" t="inlineStr">
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi512ELi6ELi5ELi3ELi3ELi3ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
 </t>
         </is>
       </c>
-      <c r="GF2" t="inlineStr">
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GG2" t="inlineStr">
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="GH2" t="inlineStr">
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GI2" t="inlineStr">
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x64_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="GJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="GK2" t="inlineStr">
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="GL2" t="inlineStr">
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="GM2" t="inlineStr">
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GN2" t="inlineStr">
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GO2" t="inlineStr">
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="GP2" t="inlineStr">
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GQ2" t="inlineStr">
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="GR2" t="inlineStr">
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GS2" t="inlineStr">
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="GT2" t="inlineStr">
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="GU2" t="inlineStr">
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="GV2" t="inlineStr">
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GW2" t="inlineStr">
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GX2" t="inlineStr">
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="GY2" t="inlineStr">
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="GZ2" t="inlineStr">
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="HA2" t="inlineStr">
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HB2" t="inlineStr">
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="HC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="HD2" t="inlineStr">
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="HE2" t="inlineStr">
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="HF2" t="inlineStr">
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HG2" t="inlineStr">
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HH2" t="inlineStr">
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="HI2" t="inlineStr">
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HJ2" t="inlineStr">
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="HK2" t="inlineStr">
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HL2" t="inlineStr">
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="HM2" t="inlineStr">
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="HN2" t="inlineStr">
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="HO2" t="inlineStr">
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HP2" t="inlineStr">
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HQ2" t="inlineStr">
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="HR2" t="inlineStr">
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HS2" t="inlineStr">
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="HT2" t="inlineStr">
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="HU2" t="inlineStr">
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="HV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="HW2" t="inlineStr">
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="HX2" t="inlineStr">
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="HY2" t="inlineStr">
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="HZ2" t="inlineStr">
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi128ELi6ELi8ELi3ELi3ELi5ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
 </t>
         </is>
       </c>
-      <c r="IA2" t="inlineStr">
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IB2" t="inlineStr">
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="IC2" t="inlineStr">
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="ID2" t="inlineStr">
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_interior_nn 
 </t>
         </is>
       </c>
-      <c r="IE2" t="inlineStr">
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="IF2" t="inlineStr">
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IG2" t="inlineStr">
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IH2" t="inlineStr">
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="II2" t="inlineStr">
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IJ2" t="inlineStr">
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="IK2" t="inlineStr">
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IL2" t="inlineStr">
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="IM2" t="inlineStr">
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="IN2" t="inlineStr">
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="IO2" t="inlineStr">
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="IP2" t="inlineStr">
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail12dgrad_engineIfLi128ELi6ELi8ELi3ELi3ELi5ELb1EEEviiiPKT_iS4_iPS2_18kernel_grad_paramsiifiii 
 </t>
         </is>
       </c>
-      <c r="IQ2" t="inlineStr">
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IR2" t="inlineStr">
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="IS2" t="inlineStr">
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IT2" t="inlineStr">
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="IU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="IV2" t="inlineStr">
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="IW2" t="inlineStr">
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="IX2" t="inlineStr">
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IY2" t="inlineStr">
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="IZ2" t="inlineStr">
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="JA2" t="inlineStr">
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JB2" t="inlineStr">
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="JC2" t="inlineStr">
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JD2" t="inlineStr">
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="JE2" t="inlineStr">
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="JF2" t="inlineStr">
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="JG2" t="inlineStr">
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JH2" t="inlineStr">
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JI2" t="inlineStr">
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="JJ2" t="inlineStr">
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JK2" t="inlineStr">
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="JL2" t="inlineStr">
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JM2" t="inlineStr">
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="JN2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="JO2" t="inlineStr">
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="JP2" t="inlineStr">
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="JQ2" t="inlineStr">
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JR2" t="inlineStr">
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JS2" t="inlineStr">
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="JT2" t="inlineStr">
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JU2" t="inlineStr">
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="JV2" t="inlineStr">
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="JW2" t="inlineStr">
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="JX2" t="inlineStr">
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="JY2" t="inlineStr">
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="JZ2" t="inlineStr">
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KA2" t="inlineStr">
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KB2" t="inlineStr">
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="KC2" t="inlineStr">
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KD2" t="inlineStr">
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="KE2" t="inlineStr">
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KF2" t="inlineStr">
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="KG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="KH2" t="inlineStr">
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="KI2" t="inlineStr">
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="KJ2" t="inlineStr">
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KK2" t="inlineStr">
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KL2" t="inlineStr">
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="KM2" t="inlineStr">
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KN2" t="inlineStr">
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="KO2" t="inlineStr">
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KP2" t="inlineStr">
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="KQ2" t="inlineStr">
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="KR2" t="inlineStr">
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="KS2" t="inlineStr">
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm20computeOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KT2" t="inlineStr">
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KU2" t="inlineStr">
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_small_nn 
 </t>
         </is>
       </c>
-      <c r="KV2" t="inlineStr">
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KW2" t="inlineStr">
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="KX2" t="inlineStr">
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="KY2" t="inlineStr">
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="KZ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LA2" t="inlineStr">
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_21threshold_kernel_implIfEEvRNS_14TensorIteratorET_S6_EUnvhdl2_PFvS5_ffES3_IfE1_fffEffEEvS5_RKT_EUnvdl7_PFvS5_RKS9_ES2_IS9_E3_iiPcPKcSD_iSJ_EEviT1_ 
 </t>
         </is>
       </c>
-      <c r="LB2" t="inlineStr">
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn6detail21bn_bw_1C11_kernel_newIff6float2Li512ELb1ELi1EEEvT0_S3_S3_S3_17cudnnTensorStructPKT_S4_S7_S4_PS5_PKS3_PS3_SB_SA_SA_S3_ 
 </t>
         </is>
       </c>
-      <c r="LC2" t="inlineStr">
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm25computeWgradOffsetsKernelENS1_20ComputeOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="LD2" t="inlineStr">
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z24scalePackedTensor_kernelIffEv19cudnnTensor4dStructPT_T0_ 
 </t>
         </is>
       </c>
-      <c r="LE2" t="inlineStr">
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN5cudnn7maxwell4gemm21computeBOffsetsKernelENS1_21ComputeBOffsetsParamsE 
 </t>
         </is>
       </c>
-      <c r="LF2" t="inlineStr">
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
         <is>
           <t xml:space="preserve">maxwell_scudnn_128x32_stridedB_splitK_small_nn 
 </t>
         </is>
       </c>
-      <c r="LG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LI2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LK2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LL2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LM2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LN2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LO2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LP2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LR2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LS2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LW2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LX2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LY2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="LZ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="ME2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MI2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MK2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="ML2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MM2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MN2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MO2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MP2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MR2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MS2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MW2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MX2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MY2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="MZ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="ND2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NI2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NK2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NL2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NM2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NN2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NO2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NP2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NR2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NS2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NW2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NX2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NY2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="NZ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OI2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OK2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OL2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OM2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="ON2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OO2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OP2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OR2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OS2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OW2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OX2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OY2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="OZ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PI2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PJ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PK2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PL2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PM2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PN2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PO2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PP2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PR2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PS2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PW2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PX2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PY2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="PZ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QC2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
-</t>
-        </is>
-      </c>
-      <c r="QG2" t="inlineStr">
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_ZN2at6native18elementwise_kernelILi512ELi1EZNS0_17gpu_binary_kernelIZNS0_15add_kernel_implIfEEvRNS_14TensorIteratorEN3c106ScalarEEUnvhdl1_PFvS5_S7_ES3_IfE1_fffEfEEvS5_RKT_EUnvdl7_PFvS5_RKSA_ES2_ISA_E3_iiPcPKcSE_iSK_EEviT1_ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z38kernelTransformReduceInnermostDimIndexIfl12MaxValuePairIflEEvPT_PT0_S3_jjN6thrust4pairIS2_S4_EET1_ 
 </t>
         </is>
       </c>
-      <c r="QH2" t="inlineStr">
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
         <is>
           <t xml:space="preserve">_Z21kernelPointwiseApply3I10TensorEQOpIlhEhlljLi1ELi1ELi1EEv10OffsetInfoIT0_T3_XT4_EES2_IT1_S4_XT5_EES2_IT2_S4_XT6_EES4_T_ 
 </t>
         </is>
       </c>
-      <c r="QI2" t="inlineStr">
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at4cuda63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a321kernelPointwiseApply2IZN63_GLOBAL__N__39_tmpxft_000010dd_00000000_7_Copy_cpp1_ii_dd3fb9a36CopyOpIlhE5applyERNS_6TensorERKS6_EUnvdl0_PFvS7_S9_ENS5_5applyE1_lhjLi1ELi1ELi1EEEvNS0_6detail10TensorInfoIT0_T2_EENSE_IT1_SG_EESG_T_ 
 </t>
         </is>
       </c>
-      <c r="QJ2" t="inlineStr">
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
         <is>
           <t xml:space="preserve">_ZN2at6native13reduce_kernelILi512ENS0_8ReduceOpIlNS0_14func_wrapper_tIlZNS0_15sum_kernel_implIlllEEvRNS_14TensorIteratorEEUnvhdl0_PFvS6_ES4_IlllE1_lllEEEjlLi4EEEEEvT0_ 
 </t>
